--- a/data/trans_bre/P17_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,63</t>
+          <t>14,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,98</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>259,66%</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>253,28%</t>
+          <t>146,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>333,29%</t>
+          <t>117,32%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,45%</t>
+          <t>148,76%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>89,81%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>45,05%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,08; 36,03</t>
+          <t>-2,44; 29,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 16,33</t>
+          <t>-5,3; 13,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 17,13</t>
+          <t>-4,12; 12,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 14,71</t>
+          <t>-8,64; 19,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,15; 1054,89</t>
+          <t>-14,48; 18,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,05; —</t>
+          <t>-25,07; 967,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,72; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,54; 400,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-72,37; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-71,28; 439,13</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,37%</t>
+          <t>-5,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>114,92%</t>
+          <t>41,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63,71%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-21,11%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 14,54</t>
+          <t>-35,65; 17,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 8,28</t>
+          <t>-9,04; 8,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 13,02</t>
+          <t>-8,98; 17,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 14,45</t>
+          <t>-6,45; 17,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,89; 175,23</t>
+          <t>-37,33; 14,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,13; 842,45</t>
+          <t>-75,78; 245,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 299,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,96; 603,29</t>
+          <t>-62,26; 538,1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-57,58; 872,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-87,81; 189,91</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,08%</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-13,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-6,52%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 17,48</t>
+          <t>-10,68; 13,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 9,23</t>
+          <t>-8,11; 10,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 12,99</t>
+          <t>-7,85; 13,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 11,97</t>
+          <t>-17,16; 8,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 206,35</t>
+          <t>-12,19; 10,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-76,22; 302,28</t>
+          <t>-42,01; 147,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,89; 159,11</t>
+          <t>-56,73; 313,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 120,86</t>
+          <t>-44,76; 233,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-58,24; 73,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-62,38; 179,74</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,49</t>
+          <t>23,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>114,99%</t>
+          <t>127,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>160,66%</t>
+          <t>106,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>299,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58,01%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 20,19</t>
+          <t>0,64; 23,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 14,48</t>
+          <t>-2,24; 14,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 26,04</t>
+          <t>12,79; 34,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 18,34</t>
+          <t>-2,86; 20,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 239,0</t>
+          <t>-7,52; 18,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 445,71</t>
+          <t>2,56; 426,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,3; 396,78</t>
+          <t>-29,24; 577,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 170,9</t>
+          <t>91,62; 1158,14</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-17,45; 216,27</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-27,93; 146,37</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,48</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,6</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>15,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>141,92%</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>49,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>139,36%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>187,18%</t>
+          <t>93,98%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>133,09%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 22,68</t>
+          <t>-6,18; 19,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,27</t>
+          <t>-13,38; 7,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 21,18</t>
+          <t>-3,66; 19,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,15; 27,71</t>
+          <t>2,45; 31,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,45; 415,5</t>
+          <t>-10,38; 16,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 161,11</t>
+          <t>-39,62; 249,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,47; 400,9</t>
+          <t>-84,71; 138,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>42,85; 501,73</t>
+          <t>-42,39; 449,79</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 501,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-51,96; 201,01</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,26</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,63</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>127,76%</t>
+          <t>26,61</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,81%</t>
+          <t>128,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>176,64%</t>
+          <t>27,32%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>178,68%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>325,96%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 23,53</t>
+          <t>-2,83; 26,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 23,19</t>
+          <t>-7,32; 21,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 13,45</t>
+          <t>-12,93; 16,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,66; 54,44</t>
+          <t>-3,41; 22,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 477,71</t>
+          <t>9,01; 50,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 362,32</t>
+          <t>-36,99; 930,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 122,31</t>
+          <t>-63,28; 742,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,66; 628,82</t>
+          <t>-67,75; 243,95</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-63,77; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>27,32; 1909,21</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,44</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>58,82%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>82,04%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>99,55%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>58,36%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 15,68</t>
+          <t>-1,47; 12,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 8,0</t>
+          <t>-1,36; 6,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,51</t>
+          <t>4,03; 13,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,1</t>
+          <t>0,85; 11,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,77; 162,43</t>
+          <t>-3,34; 12,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 144,31</t>
+          <t>-9,13; 121,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,89; 152,67</t>
+          <t>-17,2; 121,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,98; 181,96</t>
+          <t>35,54; 206,39</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 141,6</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-20,28; 112,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
